--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77282.53697890214</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77282.53697890214</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1110665383.871385</v>
+        <v>39794445.5732023</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10913.58740588758</v>
+        <v>814113.8101392218</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21827.17481177517</v>
+        <v>1628227.620278444</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32733.56458888912</v>
+        <v>2442341.430417666</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43861.85502844713</v>
+        <v>3255639.269121971</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54990.14546800513</v>
+        <v>4068937.107826277</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66118.37437197856</v>
+        <v>4882234.946530582</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77246.60327595194</v>
+        <v>5695532.785234882</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88374.8902931414</v>
+        <v>6508830.623939184</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99503.18073269945</v>
+        <v>7322128.462643486</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110631.4096366729</v>
+        <v>8135426.301347787</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>121759.7000762309</v>
+        <v>8948724.140052088</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>132887.9870934204</v>
+        <v>9762021.978756391</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144016.2775329784</v>
+        <v>10575319.8174607</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155144.5679725363</v>
+        <v>11388617.65616502</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>166272.8584120945</v>
+        <v>12201915.49486933</v>
       </c>
     </row>
   </sheetData>
